--- a/Excel/036_Indice+Corresp+três+Condições.xlsx
+++ b/Excel/036_Indice+Corresp+três+Condições.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38FDC09-9AC2-4943-9F6D-3F069678F907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DACD84-F911-4C20-BC3D-28643131899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="3463" yWindow="2546" windowWidth="16114" windowHeight="14074" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="1" r:id="rId1"/>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A336C0-003C-4732-B650-95E6988755F8}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
